--- a/model/optimization/matlab/opti-ide-val.xlsx
+++ b/model/optimization/matlab/opti-ide-val.xlsx
@@ -14,7 +14,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
   <si>
     <t>grado</t>
   </si>
@@ -134,56 +242,56 @@
   <dimension ref="A1:L5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="6.140625" customWidth="true"/>
     <col min="2" max="2" width="15.85546875" customWidth="true"/>
     <col min="3" max="3" width="15.85546875" customWidth="true"/>
-    <col min="4" max="4" width="14.85546875" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.85546875" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
